--- a/Common OOP, Design pattern/design pattern.xlsx
+++ b/Common OOP, Design pattern/design pattern.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Jave Mosh </t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>https://gist.github.com/giansalex/4cd3631e94433bbbd71bf07aedb33a7b</t>
+  </si>
+  <si>
+    <t>https://roadmap.sh/guides/design-patterns-for-humans</t>
   </si>
 </sst>
 </file>
@@ -375,14 +378,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C6:C14"/>
+  <dimension ref="C3:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>0</v>
@@ -414,6 +422,7 @@
     <hyperlink ref="C10" r:id="rId2"/>
     <hyperlink ref="C12" r:id="rId3"/>
     <hyperlink ref="C14" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Common OOP, Design pattern/design pattern.xlsx
+++ b/Common OOP, Design pattern/design pattern.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="youtube, tutorial" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Jave Mosh </t>
   </si>
@@ -34,13 +32,16 @@
   </si>
   <si>
     <t>https://roadmap.sh/guides/design-patterns-for-humans</t>
+  </si>
+  <si>
+    <t>http://www.c-jump.com/CIS75/Week11/W11_0010_design_pattern_c_sa.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +55,20 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,9 +95,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -378,13 +394,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:C14"/>
+  <dimension ref="C3:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
@@ -392,7 +411,7 @@
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -414,6 +433,11 @@
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -423,31 +447,9 @@
     <hyperlink ref="C12" r:id="rId3"/>
     <hyperlink ref="C14" r:id="rId4"/>
     <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="C16" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>